--- a/Serenity BDD Screenplay pattern/Data.xlsx
+++ b/Serenity BDD Screenplay pattern/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\Serenity BDD Screenplay pattern\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8236B6-B5FE-44BE-925F-16FCDF6617A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DFCBD9-188C-464F-AE02-86C7F707CA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AABD17E3-0593-4A4E-B0C4-E3CAB4E718B7}"/>
   </bookViews>
@@ -35,18 +35,103 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Elegiste un plan de:
-900
-Megas Simétricas</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>Velocidad</t>
+  </si>
+  <si>
+    <t>Tarifa actual plan</t>
+  </si>
+  <si>
+    <t>valor online 20% dto</t>
+  </si>
+  <si>
+    <t>valor con 1 +o 2 Elegiapps 25%</t>
+  </si>
+  <si>
+    <t>3-4 ElegiApps (30%dcto)</t>
+  </si>
+  <si>
+    <t>$ 61.792</t>
+  </si>
+  <si>
+    <t>$ 77.792</t>
+  </si>
+  <si>
+    <t>$ 97.792</t>
+  </si>
+  <si>
+    <t>$ 120.992</t>
+  </si>
+  <si>
+    <t>$ 208.192</t>
+  </si>
+  <si>
+    <t>$ 58.243</t>
+  </si>
+  <si>
+    <t>$ 73.243</t>
+  </si>
+  <si>
+    <t>$ 91.993</t>
+  </si>
+  <si>
+    <t>$ 113.743</t>
+  </si>
+  <si>
+    <t>$ 195.493</t>
+  </si>
+  <si>
+    <t>$ 54.693</t>
+  </si>
+  <si>
+    <t>$ 68.693</t>
+  </si>
+  <si>
+    <t>$ 86.193</t>
+  </si>
+  <si>
+    <t>$ 106.493</t>
+  </si>
+  <si>
+    <t>$ 182.793</t>
+  </si>
+  <si>
+    <t>Normal $258.990</t>
+  </si>
+  <si>
+    <t>Normal $149.990</t>
+  </si>
+  <si>
+    <t>Normal $120.990</t>
+  </si>
+  <si>
+    <t>Normal $95.990</t>
+  </si>
+  <si>
+    <t>Normal $75.990</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>200</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,13 +139,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -75,12 +172,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,290 +491,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63577CFC-CA25-485A-98B5-8C6FC76A3B1F}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Serenity BDD Screenplay pattern/Data.xlsx
+++ b/Serenity BDD Screenplay pattern/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\Serenity BDD Screenplay pattern\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DFCBD9-188C-464F-AE02-86C7F707CA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3D6AAA-C854-4C23-A916-8EC17CFBE0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AABD17E3-0593-4A4E-B0C4-E3CAB4E718B7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Velocidad</t>
   </si>
@@ -52,51 +52,6 @@
     <t>3-4 ElegiApps (30%dcto)</t>
   </si>
   <si>
-    <t>$ 61.792</t>
-  </si>
-  <si>
-    <t>$ 77.792</t>
-  </si>
-  <si>
-    <t>$ 97.792</t>
-  </si>
-  <si>
-    <t>$ 120.992</t>
-  </si>
-  <si>
-    <t>$ 208.192</t>
-  </si>
-  <si>
-    <t>$ 58.243</t>
-  </si>
-  <si>
-    <t>$ 73.243</t>
-  </si>
-  <si>
-    <t>$ 91.993</t>
-  </si>
-  <si>
-    <t>$ 113.743</t>
-  </si>
-  <si>
-    <t>$ 195.493</t>
-  </si>
-  <si>
-    <t>$ 54.693</t>
-  </si>
-  <si>
-    <t>$ 68.693</t>
-  </si>
-  <si>
-    <t>$ 86.193</t>
-  </si>
-  <si>
-    <t>$ 106.493</t>
-  </si>
-  <si>
-    <t>$ 182.793</t>
-  </si>
-  <si>
     <t>Normal $258.990</t>
   </si>
   <si>
@@ -115,7 +70,49 @@
     <t>300</t>
   </si>
   <si>
-    <t>900</t>
+    <t>$208.192</t>
+  </si>
+  <si>
+    <t>$120.992</t>
+  </si>
+  <si>
+    <t>$97.792</t>
+  </si>
+  <si>
+    <t>$77.792</t>
+  </si>
+  <si>
+    <t>$61.792</t>
+  </si>
+  <si>
+    <t>$195.493</t>
+  </si>
+  <si>
+    <t>$91.993</t>
+  </si>
+  <si>
+    <t>$113.743</t>
+  </si>
+  <si>
+    <t>$73.243</t>
+  </si>
+  <si>
+    <t>$58.243</t>
+  </si>
+  <si>
+    <t>$182.793</t>
+  </si>
+  <si>
+    <t>$106.493</t>
+  </si>
+  <si>
+    <t>$86.193</t>
+  </si>
+  <si>
+    <t>$68.693</t>
+  </si>
+  <si>
+    <t>$54.693</t>
   </si>
   <si>
     <t>500</t>
@@ -494,7 +491,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,89 +520,92 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
+      <c r="A2" s="1">
+        <v>900</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
